--- a/tests/sample_tests_data/data/station/station.xlsx
+++ b/tests/sample_tests_data/data/station/station.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lqt-moment-magnitude\tests\sample_tests_data\station\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lqt-moment-magnitude\tests\sample_tests_data\data\station\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1F9925-982B-4791-8BAE-5F542FA4AFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A67CEED-B16A-485B-94B9-BE483D92E32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>KJ01</t>
   </si>
@@ -415,7 +426,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -424,7 +435,7 @@
     <col min="7" max="7" width="12.59765625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -438,7 +449,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -451,11 +462,8 @@
       <c r="D2">
         <v>1120</v>
       </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -468,11 +476,8 @@
       <c r="D3">
         <v>1496</v>
       </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -485,11 +490,8 @@
       <c r="D4">
         <v>1335</v>
       </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -502,11 +504,8 @@
       <c r="D5">
         <v>1571</v>
       </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -519,11 +518,8 @@
       <c r="D6">
         <v>1150</v>
       </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -536,11 +532,8 @@
       <c r="D7">
         <v>1396</v>
       </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -553,11 +546,8 @@
       <c r="D8">
         <v>1112</v>
       </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -570,11 +560,8 @@
       <c r="D9">
         <v>1151</v>
       </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -587,11 +574,8 @@
       <c r="D10">
         <v>1270</v>
       </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -604,11 +588,8 @@
       <c r="D11">
         <v>1220</v>
       </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -621,11 +602,8 @@
       <c r="D12">
         <v>1312</v>
       </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -638,11 +616,8 @@
       <c r="D13">
         <v>989</v>
       </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -655,11 +630,8 @@
       <c r="D14">
         <v>1222</v>
       </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -672,11 +644,8 @@
       <c r="D15">
         <v>1398</v>
       </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -688,9 +657,6 @@
       </c>
       <c r="D16">
         <v>953</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/tests/sample_tests_data/data/station/station.xlsx
+++ b/tests/sample_tests_data/data/station/station.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lqt-moment-magnitude\tests\sample_tests_data\data\station\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SEML\GITHUB DEPLOY\lqt-moment-magnitude\tests\sample_tests_data\data\station\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A67CEED-B16A-485B-94B9-BE483D92E32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D04C4A-D813-4881-8C2E-EAC335AC7E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>KJ01</t>
   </si>
@@ -93,6 +82,12 @@
   </si>
   <si>
     <t>elev_m</t>
+  </si>
+  <si>
+    <t>network_code</t>
+  </si>
+  <si>
+    <t>KJ</t>
   </si>
 </sst>
 </file>
@@ -426,236 +421,285 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="10.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>38.125222999999998</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>126.563253</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1120</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>38.097281000000002</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>126.566326</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1496</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>38.110387000000003</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>126.569118</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1335</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>38.096023000000002</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>126.572559</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1571</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>38.121307999999999</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>126.561752</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1150</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>38.095081999999998</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>126.585931</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1396</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>38.128070000000001</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>126.57495400000001</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>1112</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>38.122469000000002</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>126.584321</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1151</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>38.111801999999997</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>126.580499</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1270</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>38.114910000000002</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>126.56519299999999</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1220</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>38.107481999999997</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>126.58731299999999</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>1312</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>38.133125999999997</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>126.568044</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>989</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>38.116643000000003</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>126.572309</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1222</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>38.102953999999997</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>126.577039</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>1398</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>38.133141000000002</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>126.596324</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>953</v>
       </c>
     </row>

--- a/tests/sample_tests_data/data/station/station.xlsx
+++ b/tests/sample_tests_data/data/station/station.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SEML\GITHUB DEPLOY\lqt-moment-magnitude\tests\sample_tests_data\data\station\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D04C4A-D813-4881-8C2E-EAC335AC7E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE1DB83-1F24-4116-B87F-236FCFA55D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,19 +75,19 @@
     <t>station_code</t>
   </si>
   <si>
-    <t>lat</t>
-  </si>
-  <si>
-    <t>lon</t>
-  </si>
-  <si>
-    <t>elev_m</t>
-  </si>
-  <si>
     <t>network_code</t>
   </si>
   <si>
     <t>KJ</t>
+  </si>
+  <si>
+    <t>station_lat</t>
+  </si>
+  <si>
+    <t>station_lon</t>
+  </si>
+  <si>
+    <t>station_elev_m</t>
   </si>
 </sst>
 </file>
@@ -421,39 +421,41 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>38.125222999999998</v>
@@ -465,12 +467,12 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>38.097281000000002</v>
@@ -482,12 +484,12 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>38.110387000000003</v>
@@ -499,12 +501,12 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>38.096023000000002</v>
@@ -516,12 +518,12 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>38.121307999999999</v>
@@ -533,12 +535,12 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>38.095081999999998</v>
@@ -550,12 +552,12 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>38.128070000000001</v>
@@ -567,12 +569,12 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>38.122469000000002</v>
@@ -584,12 +586,12 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>38.111801999999997</v>
@@ -601,12 +603,12 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>38.114910000000002</v>
@@ -618,12 +620,12 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>38.107481999999997</v>
@@ -635,12 +637,12 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <v>38.133125999999997</v>
@@ -652,12 +654,12 @@
         <v>989</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>38.116643000000003</v>
@@ -669,12 +671,12 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>38.102953999999997</v>
@@ -686,12 +688,12 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C16">
         <v>38.133141000000002</v>
